--- a/DPI_Table_Audit/MstSankul_04-09-2024.xlsx
+++ b/DPI_Table_Audit/MstSankul_04-09-2024.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\School_EducationPortal3.0_tableSchema\DPI_Table_Audit\MainPlan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\e\Git_Repository_16_05-2022\School_EducationPortal3.0_tableSchema\DPI_Table_Audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23877C64-973C-4C7E-8784-0E87F4F14E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>S#</t>
   </si>
@@ -76,12 +77,15 @@
   </si>
   <si>
     <t>tinyint</t>
+  </si>
+  <si>
+    <t>Need to Drop Table because ne table use TrnSankulVerication &amp; MstOfficeRegistration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -130,11 +134,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -143,6 +184,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,11 +472,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +488,7 @@
     <col min="6" max="6" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +524,9 @@
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -492,7 +544,7 @@
       <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -510,7 +562,7 @@
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -528,7 +580,7 @@
       <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -546,7 +598,7 @@
       <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -562,9 +614,12 @@
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:F7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DPI_Table_Audit/MstSankul_04-09-2024.xlsx
+++ b/DPI_Table_Audit/MstSankul_04-09-2024.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\e\Git_Repository_16_05-2022\School_EducationPortal3.0_tableSchema\DPI_Table_Audit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Git\School_EducationPortal3.0_tableSchema\DPI_Table_Audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23877C64-973C-4C7E-8784-0E87F4F14E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -472,11 +471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
